--- a/data/Student Data.xlsx
+++ b/data/Student Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="645" windowWidth="10215" windowHeight="4560"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
   <si>
     <t>Admission Number(145261)</t>
   </si>
@@ -271,12 +271,6 @@
     <t>kajitsai7@gmail.com</t>
   </si>
   <si>
-    <t>Golla</t>
-  </si>
-  <si>
-    <t>golla.manish91@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mohanth </t>
   </si>
   <si>
@@ -293,6 +287,30 @@
   </si>
   <si>
     <t>nymishakandi@gmail.com</t>
+  </si>
+  <si>
+    <t>Shriya</t>
+  </si>
+  <si>
+    <t>Gali</t>
+  </si>
+  <si>
+    <t>shriyagali11@gmail.com</t>
+  </si>
+  <si>
+    <t>Shammi</t>
+  </si>
+  <si>
+    <t>shammi.akhil@gmail.com</t>
+  </si>
+  <si>
+    <t>Harsha Anirudh</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>harsha.anirudh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -642,27 +660,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
+    <col min="3" max="17" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>145207</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>145225</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>145258</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>145209</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>145241</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>145212</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>145228</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>145215</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>145230</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>145232</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>145234</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>145211</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>145210</v>
       </c>
@@ -1435,7 +1444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>145223</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>145213</v>
       </c>
@@ -1577,16 +1586,16 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>145243</v>
+        <v>145264</v>
       </c>
       <c r="B27" s="3">
-        <v>160114733099</v>
+        <v>160114733316</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1598,13 +1607,13 @@
         <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>8019267367</v>
+        <v>9014994442</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>19</v>
@@ -1612,16 +1621,16 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>145264</v>
+        <v>145237</v>
       </c>
       <c r="B28" s="3">
-        <v>160114733316</v>
+        <v>160114733072</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -1633,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1">
-        <v>9014994442</v>
+        <v>9948033440</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>19</v>
@@ -1647,16 +1656,16 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>145237</v>
+        <v>145248</v>
       </c>
       <c r="B29" s="3">
-        <v>160114733072</v>
+        <v>160114733078</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -1671,12 +1680,82 @@
         <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>9948033440</v>
+        <v>8106996303</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>145239</v>
+      </c>
+      <c r="B30" s="3">
+        <v>160114733112</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>9848022338</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>145218</v>
+      </c>
+      <c r="B31" s="3">
+        <v>160114733095</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>9494949327</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/Student Data.xlsx
+++ b/data/Student Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
   <si>
     <t>Admission Number(145261)</t>
   </si>
@@ -73,9 +73,6 @@
     <t>praneeth970@gmail.com</t>
   </si>
   <si>
-    <t>4/4 Sem-2</t>
-  </si>
-  <si>
     <t>Dasarada Ram Reddy</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>harsha.anirudh@gmail.com</t>
+  </si>
+  <si>
+    <t>1/4 Sem-1</t>
   </si>
 </sst>
 </file>
@@ -660,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,16 +711,16 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>145208</v>
+        <v>145210</v>
       </c>
       <c r="B2" s="3">
-        <v>160114733096</v>
+        <v>160114733061</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -732,30 +732,30 @@
         <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>9866016085</v>
+        <v>9550791269</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>145226</v>
+        <v>145223</v>
       </c>
       <c r="B3" s="3">
-        <v>160114733106</v>
+        <v>160114733063</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -767,30 +767,30 @@
         <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>8885168472</v>
+        <v>9154575971</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>145222</v>
+        <v>145212</v>
       </c>
       <c r="B4" s="3">
-        <v>160114733092</v>
+        <v>160114733066</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -802,30 +802,30 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>9640006416</v>
+        <v>9949341969</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>145245</v>
+        <v>145232</v>
       </c>
       <c r="B5" s="3">
-        <v>160114733070</v>
+        <v>160114733068</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -840,27 +840,27 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>8008270694</v>
+        <v>9553716726</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>145210</v>
+        <v>145245</v>
       </c>
       <c r="B6" s="3">
-        <v>160114733061</v>
+        <v>160114733070</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -875,27 +875,27 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>9550791269</v>
+        <v>8008270694</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>145220</v>
+        <v>145207</v>
       </c>
       <c r="B7" s="3">
-        <v>160111733081</v>
+        <v>160114733071</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -910,27 +910,27 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>7207403917</v>
+        <v>8555054667</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>145246</v>
+        <v>145237</v>
       </c>
       <c r="B8" s="3">
-        <v>160114733097</v>
+        <v>160114733072</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -942,30 +942,30 @@
         <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>8121221121</v>
+        <v>9948033440</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>145216</v>
+        <v>145209</v>
       </c>
       <c r="B9" s="3">
-        <v>160114733100</v>
+        <v>160114733073</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -977,30 +977,30 @@
         <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>8985480995</v>
+        <v>9618607737</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>145207</v>
+        <v>145228</v>
       </c>
       <c r="B10" s="3">
-        <v>160114733071</v>
+        <v>160114733075</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1012,30 +1012,30 @@
         <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1">
-        <v>8555054667</v>
+        <v>9494446565</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>145225</v>
+        <v>145258</v>
       </c>
       <c r="B11" s="3">
-        <v>160114733104</v>
+        <v>160114733076</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1044,33 +1044,33 @@
         <v>14</v>
       </c>
       <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1">
-        <v>3</v>
-      </c>
       <c r="I11" s="1">
-        <v>9618280980</v>
+        <v>9542484859</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>145258</v>
+        <v>145248</v>
       </c>
       <c r="B12" s="3">
-        <v>160114733076</v>
+        <v>160114733078</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1085,27 +1085,27 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>9542484859</v>
+        <v>8106996303</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>145209</v>
+        <v>145220</v>
       </c>
       <c r="B13" s="3">
-        <v>160114733073</v>
+        <v>160114733081</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1120,27 +1120,27 @@
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>9618607737</v>
+        <v>7207403917</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>145241</v>
+        <v>145234</v>
       </c>
       <c r="B14" s="3">
-        <v>160114733085</v>
+        <v>160114733083</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1155,27 +1155,27 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>9553868346</v>
+        <v>9550786400</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>145212</v>
+        <v>145241</v>
       </c>
       <c r="B15" s="3">
-        <v>160114733066</v>
+        <v>160114733085</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1190,27 +1190,27 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>9949341969</v>
+        <v>9553868346</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>145228</v>
+        <v>145233</v>
       </c>
       <c r="B16" s="3">
-        <v>160114733075</v>
+        <v>160114733086</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1222,30 +1222,30 @@
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>9494446565</v>
+        <v>9502035012</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>145215</v>
+        <v>145219</v>
       </c>
       <c r="B17" s="3">
-        <v>160114733114</v>
+        <v>160114733087</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1260,27 +1260,27 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>8328403145</v>
+        <v>9032221385</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>145230</v>
+        <v>145222</v>
       </c>
       <c r="B18" s="3">
-        <v>160114733117</v>
+        <v>160114733092</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1292,30 +1292,30 @@
         <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>8328489294</v>
+        <v>9640006416</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>145232</v>
+        <v>145218</v>
       </c>
       <c r="B19" s="3">
-        <v>160114733068</v>
+        <v>160114733095</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1327,30 +1327,30 @@
         <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>9553716726</v>
+        <v>9494949327</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>145234</v>
+        <v>145208</v>
       </c>
       <c r="B20" s="3">
-        <v>160114733083</v>
+        <v>160114733096</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1362,30 +1362,30 @@
         <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>9550786400</v>
+        <v>9866016085</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>145211</v>
+        <v>145246</v>
       </c>
       <c r="B21" s="3">
-        <v>160114733120</v>
+        <v>160114733097</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1397,30 +1397,30 @@
         <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>7032831096</v>
+        <v>8121221121</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>145210</v>
+        <v>145216</v>
       </c>
       <c r="B22" s="3">
-        <v>160114733061</v>
+        <v>160114733100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1432,30 +1432,30 @@
         <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
-        <v>9550791269</v>
+        <v>8985480995</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>145223</v>
+        <v>145225</v>
       </c>
       <c r="B23" s="3">
-        <v>160114733063</v>
+        <v>160114733104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1464,33 +1464,33 @@
         <v>14</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>9154575971</v>
+        <v>9618280980</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>145213</v>
+        <v>145226</v>
       </c>
       <c r="B24" s="3">
-        <v>160114733116</v>
+        <v>160114733106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -1502,30 +1502,30 @@
         <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1">
-        <v>9912905432</v>
+        <v>8885168472</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>145219</v>
+        <v>145239</v>
       </c>
       <c r="B25" s="3">
-        <v>160114733087</v>
+        <v>160114733112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1540,27 +1540,27 @@
         <v>2</v>
       </c>
       <c r="I25" s="1">
-        <v>9032221385</v>
+        <v>9848022338</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>145233</v>
+        <v>145215</v>
       </c>
       <c r="B26" s="3">
-        <v>160114733086</v>
+        <v>160114733114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -1575,27 +1575,27 @@
         <v>2</v>
       </c>
       <c r="I26" s="1">
-        <v>9502035012</v>
+        <v>8328403145</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>145264</v>
+        <v>145213</v>
       </c>
       <c r="B27" s="3">
-        <v>160114733316</v>
+        <v>160114733116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1610,27 +1610,27 @@
         <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>9014994442</v>
+        <v>9912905432</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>145237</v>
+        <v>145230</v>
       </c>
       <c r="B28" s="3">
-        <v>160114733072</v>
+        <v>160114733117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -1642,30 +1642,30 @@
         <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1">
-        <v>9948033440</v>
+        <v>8328489294</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>145248</v>
+        <v>145211</v>
       </c>
       <c r="B29" s="3">
-        <v>160114733078</v>
+        <v>160114733120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -1680,27 +1680,27 @@
         <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>8106996303</v>
+        <v>7032831096</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>145239</v>
+        <v>145264</v>
       </c>
       <c r="B30" s="3">
-        <v>160114733112</v>
+        <v>160114733316</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -1712,54 +1712,28 @@
         <v>2</v>
       </c>
       <c r="H30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>9848022338</v>
+        <v>9014994442</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>145218</v>
-      </c>
-      <c r="B31" s="3">
-        <v>160114733095</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1">
-        <v>9494949327</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:K32">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
